--- a/file_export/Danh sach dao tao can bo.xlsx
+++ b/file_export/Danh sach dao tao can bo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Mẫn Việt Dũng</t>
   </si>
   <si>
-    <t>15-12-1940</t>
+    <t>15-12-1992</t>
   </si>
   <si>
     <t>Ngành học hoặc tên lớp học</t>
@@ -119,12 +119,6 @@
   </si>
   <si>
     <t>Tiến sĩ</t>
-  </si>
-  <si>
-    <t>Lê Khánh Trình</t>
-  </si>
-  <si>
-    <t>15-12-1945</t>
   </si>
 </sst>
 </file>
@@ -638,10 +632,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="40.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,64 +802,6 @@
         <v>23</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="11" t="s">
         <v>24</v>
       </c>
     </row>

--- a/file_export/Danh sach dao tao can bo.xlsx
+++ b/file_export/Danh sach dao tao can bo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
   </si>
@@ -91,34 +91,67 @@
     <t>Nữ</t>
   </si>
   <si>
+    <t>Lê Khánh Trình</t>
+  </si>
+  <si>
+    <t>15-12-1945</t>
+  </si>
+  <si>
+    <t>Ngành học hoặc tên lớp học</t>
+  </si>
+  <si>
+    <t>8/2000-9/2001</t>
+  </si>
+  <si>
+    <t>Văn bằng, chứng chỉ</t>
+  </si>
+  <si>
+    <t>VNU</t>
+  </si>
+  <si>
+    <t>CNTT</t>
+  </si>
+  <si>
+    <t>7/1990-8/2001</t>
+  </si>
+  <si>
+    <t>chính quy</t>
+  </si>
+  <si>
+    <t>Tiến sĩ</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Tài</t>
+  </si>
+  <si>
+    <t>14-04-1993</t>
+  </si>
+  <si>
+    <t>THCS Nguyễn Trực</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Chính quy</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp cấp 2</t>
+  </si>
+  <si>
+    <t>ĐH Công Nghệ</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>13-02-1993</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hai</t>
+  </si>
+  <si>
     <t>Mẫn Việt Dũng</t>
-  </si>
-  <si>
-    <t>15-12-1992</t>
-  </si>
-  <si>
-    <t>Ngành học hoặc tên lớp học</t>
-  </si>
-  <si>
-    <t>8/2000-9/2001</t>
-  </si>
-  <si>
-    <t>Văn bằng, chứng chỉ</t>
-  </si>
-  <si>
-    <t>VNU</t>
-  </si>
-  <si>
-    <t>CNTT</t>
-  </si>
-  <si>
-    <t>7/1990-8/2001</t>
-  </si>
-  <si>
-    <t>chính quy</t>
-  </si>
-  <si>
-    <t>Tiến sĩ</t>
   </si>
 </sst>
 </file>
@@ -137,10 +170,10 @@
       <name val=".VnTime"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="single"/>
+      <u val="none"/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -155,10 +188,10 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="none"/>
+      <u val="single"/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -201,9 +234,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -215,6 +245,28 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -229,25 +281,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -261,76 +294,76 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,176 +665,408 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="40.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="true" style="7"/>
-    <col min="2" max="2" width="27.125" customWidth="true" style="5"/>
-    <col min="3" max="3" width="10.625" customWidth="true" style="4"/>
-    <col min="4" max="4" width="10.625" customWidth="true" style="4"/>
-    <col min="5" max="5" width="5.375" hidden="true" customWidth="true" style="4"/>
-    <col min="6" max="6" width="5.375" hidden="true" customWidth="true" style="4"/>
-    <col min="7" max="7" width="16.125" customWidth="true" style="5"/>
-    <col min="8" max="8" width="16.125" customWidth="true" style="6"/>
-    <col min="9" max="9" width="16.125" customWidth="true" style="5"/>
-    <col min="10" max="10" width="16.125" customWidth="true" style="5"/>
-    <col min="11" max="11" width="16.125" customWidth="true" style="5"/>
-    <col min="12" max="12" width="9" customWidth="true" style="5"/>
+    <col min="1" max="1" width="3.875" customWidth="true" style="4"/>
+    <col min="2" max="2" width="27.125" customWidth="true" style="2"/>
+    <col min="3" max="3" width="10.625" customWidth="true" style="1"/>
+    <col min="4" max="4" width="10.625" customWidth="true" style="1"/>
+    <col min="5" max="5" width="5.375" hidden="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="5.375" hidden="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="16.125" customWidth="true" style="2"/>
+    <col min="8" max="8" width="16.125" customWidth="true" style="3"/>
+    <col min="9" max="9" width="16.125" customWidth="true" style="2"/>
+    <col min="10" max="10" width="16.125" customWidth="true" style="2"/>
+    <col min="11" max="11" width="16.125" customWidth="true" style="2"/>
+    <col min="12" max="12" width="9" customWidth="true" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="25.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:12" customHeight="1" ht="4.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:12" customHeight="1" ht="21.75">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:12" customHeight="1" ht="72.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" customHeight="1" ht="40.5" s="7" customFormat="1">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" customHeight="1" ht="40.5" s="4" customFormat="1">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" customHeight="1" ht="40.5" s="7" customFormat="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+    <row r="6" spans="1:12" customHeight="1" ht="40.5" s="4" customFormat="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" customHeight="1" ht="40.5" s="12" customFormat="1">
-      <c r="A7" s="9">
+      <c r="E6" s="9"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" customHeight="1" ht="40.5" s="6" customFormat="1">
+      <c r="A7" s="22">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8">
+      <c r="A8" s="23">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="23">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="23">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="23">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="23">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="23">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="23">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="23">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="23">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
